--- a/Data/Excels/player_prop.xlsx
+++ b/Data/Excels/player_prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameOff\GameOffJam2022\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5735AD52-32E5-4A10-95FB-DDADBF03FC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E7F56-7007-48AE-A149-2E6BCDD7A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>击退的距离？</t>
   </si>
   <si>
-    <t>flaot</t>
-  </si>
-  <si>
     <t>dash_cd</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -103,6 +100,10 @@
   </si>
   <si>
     <t>player_hitback_mul</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +523,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,22 +547,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -587,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
